--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
@@ -175,7 +175,7 @@
     <t xml:space="preserve">test</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -377,7 +377,7 @@
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239FED4B-1AD2-47F2-A37C-2B0E87811EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5127A2-F816-45D3-98E9-2BDE2708E86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -246,19 +246,19 @@
     <t>ภัยที่ผู้รับประกันภัยรับเสี่ยง</t>
   </si>
   <si>
-    <t>2023-08-31</t>
-  </si>
-  <si>
-    <t>[][มอบฉันทะ][][][]</t>
-  </si>
-  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>[|Limited|Test|Automation|0|O]</t>
+  </si>
+  <si>
+    <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,7 +934,7 @@
         <v>72</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>59</v>
@@ -944,7 +944,7 @@
       </c>
       <c r="AP2" s="2"/>
       <c r="AR2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="3" t="s">
@@ -954,13 +954,13 @@
         <v>57</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5127A2-F816-45D3-98E9-2BDE2708E86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608C02EF-6083-4BAF-A97F-A669535025D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
     <t>2024-08-01</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608C02EF-6083-4BAF-A97F-A669535025D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558055BD-A44B-40EB-A19F-55FE920DD516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>detail1</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +951,7 @@
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="3" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>57</v>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558055BD-A44B-40EB-A19F-55FE920DD516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AFF046-01E0-440B-A1A8-07381461E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -258,10 +258,10 @@
     <t>2024-08-01</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>57</v>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AFF046-01E0-440B-A1A8-07381461E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677D6442-DE40-4D29-9925-A786DF3EE82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -631,60 +631,59 @@
       <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="22" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.44140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="14.109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="8.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.7109375" style="1" customWidth="1"/>
     <col min="37" max="38" width="9" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.33203125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.28515625" style="1" customWidth="1"/>
     <col min="40" max="41" width="9" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10.109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="10.140625" style="1" customWidth="1"/>
     <col min="43" max="43" width="10" style="1" customWidth="1"/>
-    <col min="44" max="44" width="12.77734375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="14.44140625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="11.6640625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="17.21875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="18.44140625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="10.21875" style="1" customWidth="1"/>
-    <col min="50" max="50" width="8.77734375" style="1" customWidth="1"/>
-    <col min="51" max="55" width="2.6640625" style="1"/>
-    <col min="58" max="16384" width="2.6640625" style="1"/>
+    <col min="44" max="44" width="12.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="14.42578125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" style="1" customWidth="1"/>
+    <col min="49" max="49" width="10.28515625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="8.7109375" style="1" customWidth="1"/>
+    <col min="51" max="55" width="2.7109375" style="1"/>
+    <col min="58" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -841,7 +840,7 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677D6442-DE40-4D29-9925-A786DF3EE82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD361989-A0F8-44DD-B139-1360ED5FBB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD361989-A0F8-44DD-B139-1360ED5FBB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AD04CC-1ABC-4DE5-934B-94A4F054E985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -328,9 +328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -368,7 +368,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -474,7 +474,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
+++ b/Data Files/Input Validation/05. detail1/06. Typecode 8/Auto_Detail1_TC8_C3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0AB312-2B44-4FE6-A0FD-9327DE2A8A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D460DD-A719-4786-BDEF-BA851437DC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -252,16 +252,16 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>[|Limited|Test|Automation|0|O]</t>
-  </si>
-  <si>
     <t>2024-08-01</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|Limited|Test|Automation||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -328,9 +328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -368,7 +368,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -474,7 +474,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,7 +628,7 @@
   <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +936,7 @@
         <v>72</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>59</v>
@@ -946,11 +946,11 @@
       </c>
       <c r="AP2" s="2"/>
       <c r="AR2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>57</v>
